--- a/tut05/output/0401EE20.xlsx
+++ b/tut05/output/0401EE20.xlsx
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.224489795918367</v>
+        <v>7.22</v>
       </c>
       <c r="C6" t="n">
-        <v>6.045454545454546</v>
+        <v>6.05</v>
       </c>
       <c r="D6" t="n">
-        <v>7.586956521739131</v>
+        <v>7.59</v>
       </c>
       <c r="E6" t="n">
-        <v>7.739130434782608</v>
+        <v>7.74</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
@@ -568,10 +568,10 @@
         <v>7.65</v>
       </c>
       <c r="H6" t="n">
-        <v>7.767441860465116</v>
+        <v>7.77</v>
       </c>
       <c r="I6" t="n">
-        <v>6.421052631578948</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.224489795918367</v>
+        <v>7.22</v>
       </c>
       <c r="C8" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
       <c r="D8" t="n">
-        <v>6.971223021582734</v>
+        <v>6.97</v>
       </c>
       <c r="E8" t="n">
-        <v>7.162162162162162</v>
+        <v>7.16</v>
       </c>
       <c r="F8" t="n">
-        <v>7.308035714285714</v>
+        <v>7.31</v>
       </c>
       <c r="G8" t="n">
-        <v>7.359848484848484</v>
+        <v>7.36</v>
       </c>
       <c r="H8" t="n">
-        <v>7.416938110749186</v>
+        <v>7.42</v>
       </c>
       <c r="I8" t="n">
-        <v>7.307246376811595</v>
+        <v>7.31</v>
       </c>
     </row>
   </sheetData>
